--- a/Docs/Results/KNL_Results.xlsx
+++ b/Docs/Results/KNL_Results.xlsx
@@ -437,11 +437,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="415359036"/>
-        <c:axId val="1875977880"/>
+        <c:axId val="619999372"/>
+        <c:axId val="475412389"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415359036"/>
+        <c:axId val="619999372"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,10 +473,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1875977880"/>
+        <c:crossAx val="475412389"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1875977880"/>
+        <c:axId val="475412389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +501,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>MB/s</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -524,7 +524,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415359036"/>
+        <c:crossAx val="619999372"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -722,11 +722,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="590220747"/>
-        <c:axId val="1466587783"/>
+        <c:axId val="972037770"/>
+        <c:axId val="2144309682"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="590220747"/>
+        <c:axId val="972037770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,10 +758,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1466587783"/>
+        <c:crossAx val="2144309682"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1466587783"/>
+        <c:axId val="2144309682"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +809,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590220747"/>
+        <c:crossAx val="972037770"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1007,11 +1007,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="392621546"/>
-        <c:axId val="1801678608"/>
+        <c:axId val="389476133"/>
+        <c:axId val="109582203"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392621546"/>
+        <c:axId val="389476133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,10 +1043,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1801678608"/>
+        <c:crossAx val="109582203"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1801678608"/>
+        <c:axId val="109582203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392621546"/>
+        <c:crossAx val="389476133"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1292,11 +1292,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="201370610"/>
-        <c:axId val="973057761"/>
+        <c:axId val="204499123"/>
+        <c:axId val="1472344828"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201370610"/>
+        <c:axId val="204499123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,10 +1328,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973057761"/>
+        <c:crossAx val="1472344828"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="973057761"/>
+        <c:axId val="1472344828"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1379,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201370610"/>
+        <c:crossAx val="204499123"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1577,11 +1577,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="324089758"/>
-        <c:axId val="1613340247"/>
+        <c:axId val="2014559666"/>
+        <c:axId val="83110145"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324089758"/>
+        <c:axId val="2014559666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,10 +1613,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1613340247"/>
+        <c:crossAx val="83110145"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1613340247"/>
+        <c:axId val="83110145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1664,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324089758"/>
+        <c:crossAx val="2014559666"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1862,11 +1862,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1512127608"/>
-        <c:axId val="1266564247"/>
+        <c:axId val="710662190"/>
+        <c:axId val="546564114"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1512127608"/>
+        <c:axId val="710662190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,10 +1898,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1266564247"/>
+        <c:crossAx val="546564114"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1266564247"/>
+        <c:axId val="546564114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1949,292 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1512127608"/>
+        <c:crossAx val="710662190"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>MCDRAM Bandwidth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$30</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="3366CC"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AE$31:$AE$39</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$31:$AF$39</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$30</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="DC3912"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AE$31:$AE$39</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$31:$AG$39</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AH$30</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF9900"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AE$31:$AE$39</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AH$31:$AH$39</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AI$30</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="109618"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="109618"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="109618"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AE$31:$AE$39</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AI$31:$AI$39</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1054883177"/>
+        <c:axId val="1556887618"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1054883177"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556887618"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1556887618"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bandwidth (MB/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1054883177"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2147,11 +2432,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1710393574"/>
-        <c:axId val="563108815"/>
+        <c:axId val="934352315"/>
+        <c:axId val="1704744352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1710393574"/>
+        <c:axId val="934352315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,10 +2468,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563108815"/>
+        <c:crossAx val="1704744352"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563108815"/>
+        <c:axId val="1704744352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,7 +2496,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>MB/s</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2234,7 +2519,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710393574"/>
+        <c:crossAx val="934352315"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2432,11 +2717,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8646086"/>
-        <c:axId val="428364610"/>
+        <c:axId val="1311551527"/>
+        <c:axId val="1708375963"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8646086"/>
+        <c:axId val="1311551527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,10 +2753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428364610"/>
+        <c:crossAx val="1708375963"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428364610"/>
+        <c:axId val="1708375963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2781,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>MB/s</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2519,7 +2804,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8646086"/>
+        <c:crossAx val="1311551527"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2717,11 +3002,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="364294439"/>
-        <c:axId val="4758369"/>
+        <c:axId val="1055728847"/>
+        <c:axId val="1843913810"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="364294439"/>
+        <c:axId val="1055728847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,10 +3038,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4758369"/>
+        <c:crossAx val="1843913810"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4758369"/>
+        <c:axId val="1843913810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,7 +3066,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>MB/s</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2804,7 +3089,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364294439"/>
+        <c:crossAx val="1055728847"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3002,11 +3287,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="359573558"/>
-        <c:axId val="452279545"/>
+        <c:axId val="1234632168"/>
+        <c:axId val="1958732777"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="359573558"/>
+        <c:axId val="1234632168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,10 +3323,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452279545"/>
+        <c:crossAx val="1958732777"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452279545"/>
+        <c:axId val="1958732777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3066,7 +3351,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>MB/s</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3089,7 +3374,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359573558"/>
+        <c:crossAx val="1234632168"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3287,11 +3572,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1406916689"/>
-        <c:axId val="364047887"/>
+        <c:axId val="1727013313"/>
+        <c:axId val="1226557321"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1406916689"/>
+        <c:axId val="1727013313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,10 +3608,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364047887"/>
+        <c:crossAx val="1226557321"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364047887"/>
+        <c:axId val="1226557321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,7 +3636,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>MB/s</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3374,7 +3659,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406916689"/>
+        <c:crossAx val="1727013313"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3572,11 +3857,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1225077527"/>
-        <c:axId val="57749056"/>
+        <c:axId val="2037715315"/>
+        <c:axId val="901682350"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1225077527"/>
+        <c:axId val="2037715315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3608,10 +3893,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57749056"/>
+        <c:crossAx val="901682350"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57749056"/>
+        <c:axId val="901682350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,7 +3921,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>MB/s</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3659,7 +3944,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1225077527"/>
+        <c:crossAx val="2037715315"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3857,11 +4142,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1149074641"/>
-        <c:axId val="57368479"/>
+        <c:axId val="436287010"/>
+        <c:axId val="279833792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1149074641"/>
+        <c:axId val="436287010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,10 +4178,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57368479"/>
+        <c:crossAx val="279833792"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57368479"/>
+        <c:axId val="279833792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,7 +4229,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149074641"/>
+        <c:crossAx val="436287010"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4142,11 +4427,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2124830048"/>
-        <c:axId val="1183438378"/>
+        <c:axId val="1357787940"/>
+        <c:axId val="1355817769"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2124830048"/>
+        <c:axId val="1357787940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4178,10 +4463,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1183438378"/>
+        <c:crossAx val="1355817769"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1183438378"/>
+        <c:axId val="1355817769"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4206,7 +4491,7 @@
                   <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>MB/s</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4229,7 +4514,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124830048"/>
+        <c:crossAx val="1357787940"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4662,6 +4947,36 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 15" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
